--- a/data/trans_orig/P36B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>9515</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4773</v>
+        <v>4769</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18512</v>
+        <v>19020</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01925821916788278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009661313590182487</v>
+        <v>0.009652031116880138</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03746967450480425</v>
+        <v>0.0384960824973904</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -764,19 +764,19 @@
         <v>13147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6820</v>
+        <v>7244</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21169</v>
+        <v>21125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02818728451376655</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01462266125771346</v>
+        <v>0.01553051590530674</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04538529184102803</v>
+        <v>0.04529163639880012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -785,19 +785,19 @@
         <v>22662</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14702</v>
+        <v>14712</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35331</v>
+        <v>33999</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02359430109011737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01530710289066957</v>
+        <v>0.01531698162062159</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03678401961628566</v>
+        <v>0.03539784764775759</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>87817</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72786</v>
+        <v>70685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105211</v>
+        <v>106494</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1777441404939591</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1473214685009533</v>
+        <v>0.143067803056861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2129498320325353</v>
+        <v>0.2155463808158469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -835,19 +835,19 @@
         <v>81526</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65786</v>
+        <v>66511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97897</v>
+        <v>98803</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1747883598781701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1410410554926497</v>
+        <v>0.1425963489908235</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2098854400489329</v>
+        <v>0.2118286384407169</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>173</v>
@@ -856,19 +856,19 @@
         <v>169343</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>148529</v>
+        <v>147433</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193117</v>
+        <v>194588</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1763087711246306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1546381988809048</v>
+        <v>0.1534976193388522</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.201060439746699</v>
+        <v>0.2025913302052966</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>286962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>264437</v>
+        <v>264794</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>308235</v>
+        <v>310404</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5808186450235412</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5352288393229847</v>
+        <v>0.5359503726419605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6238764272804004</v>
+        <v>0.6282667236081504</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>306</v>
@@ -906,19 +906,19 @@
         <v>288921</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>269187</v>
+        <v>267057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>309291</v>
+        <v>308055</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.61943293891594</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5771234008505195</v>
+        <v>0.5725569867885687</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6631042362178573</v>
+        <v>0.6604541336475137</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>599</v>
@@ -927,19 +927,19 @@
         <v>575883</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>545100</v>
+        <v>546467</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>605601</v>
+        <v>604818</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5995702987746104</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.567520594552487</v>
+        <v>0.5689445008922769</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6305110179474789</v>
+        <v>0.6296955484775766</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>101008</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82868</v>
+        <v>84707</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118670</v>
+        <v>122002</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2044427836439885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1677280732971713</v>
+        <v>0.1714504371272414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2401910822953824</v>
+        <v>0.2469347038932637</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -977,19 +977,19 @@
         <v>74672</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60039</v>
+        <v>60291</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92031</v>
+        <v>91496</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1600934036914575</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1287212996102492</v>
+        <v>0.1292613155835922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1973093776050438</v>
+        <v>0.1961622992452947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -998,19 +998,19 @@
         <v>175680</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>152197</v>
+        <v>152604</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>201419</v>
+        <v>198092</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1829060900231794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1584575362391795</v>
+        <v>0.1588805591453796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2097041732931429</v>
+        <v>0.2062402912216217</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>8763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4480</v>
+        <v>4150</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17125</v>
+        <v>16809</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01773621167062834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009068086652191306</v>
+        <v>0.00839991538040741</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03466178091965202</v>
+        <v>0.03402275672684897</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1048,19 +1048,19 @@
         <v>8162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3654</v>
+        <v>3777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14759</v>
+        <v>16364</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01749801300066582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007833874281016426</v>
+        <v>0.0080977823787593</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03164151213492652</v>
+        <v>0.03508419112529036</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1069,19 +1069,19 @@
         <v>16924</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9869</v>
+        <v>10042</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25727</v>
+        <v>26359</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01762053898746213</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01027449084174756</v>
+        <v>0.01045529713306587</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02678495743972991</v>
+        <v>0.02744336348573399</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>11126</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5548</v>
+        <v>5761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19384</v>
+        <v>19944</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01512765663493583</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007542701445015953</v>
+        <v>0.007832627579183645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02635500545807542</v>
+        <v>0.02711674669239232</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1194,19 +1194,19 @@
         <v>11887</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6255</v>
+        <v>6215</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21746</v>
+        <v>20766</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01900439013729478</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009999445001647091</v>
+        <v>0.009936787703827554</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03476662783021567</v>
+        <v>0.03319935726869543</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1215,19 +1215,19 @@
         <v>23013</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14980</v>
+        <v>14490</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33657</v>
+        <v>35549</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01690936431312348</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01100653172248669</v>
+        <v>0.0106467728562333</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02472988849220488</v>
+        <v>0.02612029788991923</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>125842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106958</v>
+        <v>105878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145951</v>
+        <v>149454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1710994101212502</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1454239012753109</v>
+        <v>0.1439560756095018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1984411301376532</v>
+        <v>0.2032041860071558</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -1265,19 +1265,19 @@
         <v>67687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53650</v>
+        <v>52496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>84797</v>
+        <v>85138</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1082134793090945</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08577196051833799</v>
+        <v>0.08392706461411685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1355673512103044</v>
+        <v>0.1361138705819291</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>188</v>
@@ -1286,19 +1286,19 @@
         <v>193528</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>170151</v>
+        <v>168781</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>223538</v>
+        <v>221640</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1421976695941241</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1250207168939866</v>
+        <v>0.1240142203560024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1642474100650646</v>
+        <v>0.1628531967354385</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>454918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>427208</v>
+        <v>430132</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>480897</v>
+        <v>481925</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6185246309710496</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5808483895838563</v>
+        <v>0.584824390868842</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6538473009420203</v>
+        <v>0.6552441039599396</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>370</v>
@@ -1336,19 +1336,19 @@
         <v>390934</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>367722</v>
+        <v>365938</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>413557</v>
+        <v>414978</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6250000408023705</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5878913043109318</v>
+        <v>0.5850389133106815</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6611689867738981</v>
+        <v>0.6634401486611045</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>800</v>
@@ -1357,19 +1357,19 @@
         <v>845851</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>807850</v>
+        <v>809331</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>881282</v>
+        <v>882200</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6215006641208278</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5935790108803271</v>
+        <v>0.5946670594785397</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.647533729074248</v>
+        <v>0.64820854145095</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>137353</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114535</v>
+        <v>116030</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156857</v>
+        <v>158075</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1867509940974604</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1557266708874523</v>
+        <v>0.1577592038801046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2132691491162445</v>
+        <v>0.2149244241495561</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -1407,19 +1407,19 @@
         <v>146434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>126080</v>
+        <v>126527</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169079</v>
+        <v>169039</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2341096992721113</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2015685057077869</v>
+        <v>0.2022840789370148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2703129950930966</v>
+        <v>0.2702489531074042</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -1428,19 +1428,19 @@
         <v>283787</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>252971</v>
+        <v>255420</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>313851</v>
+        <v>315467</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2085165780839162</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1858735451811453</v>
+        <v>0.1876729709469608</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2306061895347375</v>
+        <v>0.2317938143372414</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>6250</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2466</v>
+        <v>2663</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14602</v>
+        <v>13719</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008497308175304016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003352748638799776</v>
+        <v>0.003620605351213619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01985352152246134</v>
+        <v>0.01865270547417992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1478,19 +1478,19 @@
         <v>8552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3833</v>
+        <v>3762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17019</v>
+        <v>16009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01367239047912901</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006127665772757307</v>
+        <v>0.006015015543348463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02720827804246505</v>
+        <v>0.02559375418738913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1499,19 +1499,19 @@
         <v>14802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8015</v>
+        <v>8166</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24790</v>
+        <v>24677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0108757238880084</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005889493857021037</v>
+        <v>0.005999715731062353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0182149991506925</v>
+        <v>0.01813150371639674</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>10780</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5328</v>
+        <v>5365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19339</v>
+        <v>18746</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01687915569770068</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008342906814485344</v>
+        <v>0.008400456065168024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0302799447981238</v>
+        <v>0.02935155600500846</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1624,19 +1624,19 @@
         <v>5891</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11676</v>
+        <v>12739</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008568013122685734</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002894466317698208</v>
+        <v>0.002903673889950665</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01698073993211632</v>
+        <v>0.0185275474824071</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1645,19 +1645,19 @@
         <v>16671</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9281</v>
+        <v>9371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26640</v>
+        <v>27409</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01257032120506505</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006997700828018791</v>
+        <v>0.007066014258535489</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02008696399351222</v>
+        <v>0.02066680430175756</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>76876</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60965</v>
+        <v>61124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94088</v>
+        <v>94037</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1203691327232591</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0954569499425964</v>
+        <v>0.09570514822073591</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1473189805814751</v>
+        <v>0.1472391474858769</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -1695,19 +1695,19 @@
         <v>53466</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42173</v>
+        <v>40675</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69205</v>
+        <v>68731</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07775956858277557</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06133485573292376</v>
+        <v>0.05915652017382071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1006492330711145</v>
+        <v>0.09996042225330892</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -1716,19 +1716,19 @@
         <v>130342</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>109350</v>
+        <v>108049</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152185</v>
+        <v>154763</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09827860088271301</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08245074887096655</v>
+        <v>0.08146992604833062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1147488048054422</v>
+        <v>0.116692193532857</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>372155</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>347170</v>
+        <v>348369</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>396618</v>
+        <v>399645</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5827043628298092</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.543584029289178</v>
+        <v>0.5454625014749884</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.621008355838169</v>
+        <v>0.6257473236881044</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>417</v>
@@ -1766,19 +1766,19 @@
         <v>439819</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>413650</v>
+        <v>413610</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>462138</v>
+        <v>466036</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6396620398700521</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6016021207621807</v>
+        <v>0.6015431010064891</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.672121205330159</v>
+        <v>0.6777909459674147</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>776</v>
@@ -1787,19 +1787,19 @@
         <v>811974</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>777712</v>
+        <v>776668</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>850092</v>
+        <v>847494</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6122335402246463</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5863999355675049</v>
+        <v>0.5856122969006877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.640974864132818</v>
+        <v>0.6390158842082181</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>170966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>148877</v>
+        <v>148256</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>194196</v>
+        <v>193181</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2676917709747543</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2331051207579594</v>
+        <v>0.2321336728570994</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3040642130340134</v>
+        <v>0.3024754864555986</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>177</v>
@@ -1837,19 +1837,19 @@
         <v>184473</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>160936</v>
+        <v>161232</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>208373</v>
+        <v>210159</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2682932711440374</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2340618263429146</v>
+        <v>0.2344923036053087</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3030519427532644</v>
+        <v>0.3056498535698904</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>341</v>
@@ -1858,19 +1858,19 @@
         <v>355440</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>322306</v>
+        <v>324668</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>388485</v>
+        <v>391578</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2680036131376508</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2430207041539282</v>
+        <v>0.2448017064707661</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2929204154349797</v>
+        <v>0.2952521281284608</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>7891</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3512</v>
+        <v>3583</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16723</v>
+        <v>16066</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01235557777447681</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00549841929077456</v>
+        <v>0.005609815341552309</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0261839448014251</v>
+        <v>0.02515472359993079</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1908,19 +1908,19 @@
         <v>3931</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1015</v>
+        <v>985</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9834</v>
+        <v>9010</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005717107280449187</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001476719050015244</v>
+        <v>0.00143320912648971</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01430253902055092</v>
+        <v>0.01310424908113631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1929,19 +1929,19 @@
         <v>11822</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5947</v>
+        <v>6319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20737</v>
+        <v>21705</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008913924549924993</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004483845141496654</v>
+        <v>0.004764243234192809</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01563553209060685</v>
+        <v>0.01636595869087924</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>3547</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10601</v>
+        <v>10959</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006833069840011822</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00176758281671374</v>
+        <v>0.001755181976671671</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02041988752753585</v>
+        <v>0.02110992794337025</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2057,16 +2057,16 @@
         <v>1014</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9770</v>
+        <v>8872</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006340171151635262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001966108784896817</v>
+        <v>0.001966413390151072</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01894727230480574</v>
+        <v>0.01720566012262538</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2075,19 +2075,19 @@
         <v>6817</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2667</v>
+        <v>2971</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13708</v>
+        <v>16041</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006587455272700419</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002577483121173886</v>
+        <v>0.002871575330018864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01324688683917367</v>
+        <v>0.01550128843640111</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>53195</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>40958</v>
+        <v>39422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>67712</v>
+        <v>67849</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1024654249804192</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07889392575390239</v>
+        <v>0.07593555763049992</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1304295191217069</v>
+        <v>0.1306936348349799</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -2125,19 +2125,19 @@
         <v>32064</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22112</v>
+        <v>21491</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>45012</v>
+        <v>44380</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06218268788223088</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04288219928077552</v>
+        <v>0.04167838945666816</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08729314104801149</v>
+        <v>0.0860676109104476</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>80</v>
@@ -2146,19 +2146,19 @@
         <v>85259</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>68717</v>
+        <v>68283</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>105017</v>
+        <v>103783</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08239227957384875</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06640647559225812</v>
+        <v>0.06598694039255566</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1014866182835347</v>
+        <v>0.1002942042423963</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>310272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>286866</v>
+        <v>287751</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>332418</v>
+        <v>334682</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5976577176493429</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5525726483398139</v>
+        <v>0.5542766156504444</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6403152742240013</v>
+        <v>0.6446773984498904</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>323</v>
@@ -2196,19 +2196,19 @@
         <v>329958</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>310163</v>
+        <v>309259</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>351838</v>
+        <v>351195</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6398971844253846</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6015083822111487</v>
+        <v>0.5997548080387707</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6823290252907251</v>
+        <v>0.6810822507302464</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>614</v>
@@ -2217,19 +2217,19 @@
         <v>640230</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>606924</v>
+        <v>609366</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>671796</v>
+        <v>670873</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.618705913962935</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.586519315751272</v>
+        <v>0.588879424131838</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6492107206347176</v>
+        <v>0.6483188917393795</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>144588</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>124831</v>
+        <v>122775</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>167392</v>
+        <v>165335</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2785103500600672</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2404550080849051</v>
+        <v>0.236493170160685</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3224356830986772</v>
+        <v>0.3184745896536924</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -2267,19 +2267,19 @@
         <v>145473</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>126839</v>
+        <v>126158</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>166243</v>
+        <v>165584</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2821205900585573</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2459817433662957</v>
+        <v>0.2446626108831309</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3223995042242317</v>
+        <v>0.3211227377258536</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>273</v>
@@ -2288,19 +2288,19 @@
         <v>290061</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>262816</v>
+        <v>258779</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>322108</v>
+        <v>319154</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.280309355730056</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2539799051120316</v>
+        <v>0.2500787838794873</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3112792479303621</v>
+        <v>0.3084243295090927</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>7545</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3660</v>
+        <v>3626</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14877</v>
+        <v>14410</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01453343747015878</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007050968708651013</v>
+        <v>0.006984083327905163</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02865603446905661</v>
+        <v>0.02775752697076402</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2338,19 +2338,19 @@
         <v>4878</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1802</v>
+        <v>1855</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11071</v>
+        <v>11723</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009459366482192045</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003495572404570612</v>
+        <v>0.003598137830812606</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02147118994898989</v>
+        <v>0.02273424246203589</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2359,19 +2359,19 @@
         <v>12423</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6964</v>
+        <v>6330</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20667</v>
+        <v>20511</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01200499546045985</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006729676839873907</v>
+        <v>0.006117423651706443</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01997228579899214</v>
+        <v>0.01982161742740429</v>
       </c>
     </row>
     <row r="27">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9410</v>
+        <v>8500</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006061662217143339</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02433308052755704</v>
+        <v>0.02198016744913015</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2484,19 +2484,19 @@
         <v>3129</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9267</v>
+        <v>9116</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.007744258779667892</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002411722671294326</v>
+        <v>0.002428246506979106</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02293893349452464</v>
+        <v>0.0225662614074037</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2505,19 +2505,19 @@
         <v>5473</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1979</v>
+        <v>1961</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12964</v>
+        <v>13725</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006921342052845015</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002502547169130595</v>
+        <v>0.002480299709553931</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01639556079905815</v>
+        <v>0.01735802604921824</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>34277</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24089</v>
+        <v>24368</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47865</v>
+        <v>47639</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08863700137336766</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06229309625717593</v>
+        <v>0.06301427386954625</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1237758825745826</v>
+        <v>0.1231907262775184</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -2555,19 +2555,19 @@
         <v>20475</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12818</v>
+        <v>12220</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30609</v>
+        <v>31225</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05068275825746682</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03172895150759852</v>
+        <v>0.03024762397454887</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07576679302961584</v>
+        <v>0.07729132374311701</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>53</v>
@@ -2576,19 +2576,19 @@
         <v>54752</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42098</v>
+        <v>41080</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70328</v>
+        <v>68861</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06924524804831415</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05324114649998157</v>
+        <v>0.05195366365165337</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08894453515122334</v>
+        <v>0.08708899896641739</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>214542</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>193219</v>
+        <v>191915</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>232205</v>
+        <v>233787</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5547883677961271</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4996481734307711</v>
+        <v>0.4962767425036603</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6004621430301914</v>
+        <v>0.6045541175616014</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>239</v>
@@ -2626,19 +2626,19 @@
         <v>244405</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>222613</v>
+        <v>225484</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>263860</v>
+        <v>263198</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6049826623926877</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5510422299503913</v>
+        <v>0.5581479358189696</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6531415017066375</v>
+        <v>0.6515031943711382</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>456</v>
@@ -2647,19 +2647,19 @@
         <v>458947</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>429670</v>
+        <v>431923</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>484896</v>
+        <v>485543</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5804338635097219</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5434067486213499</v>
+        <v>0.5462569674090829</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6132515228060587</v>
+        <v>0.6140701338489635</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>127996</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>110863</v>
+        <v>110587</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>146763</v>
+        <v>147008</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3309879855643341</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2866825366525226</v>
+        <v>0.2859678039697023</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3795162457162989</v>
+        <v>0.3801507542929768</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>126</v>
@@ -2697,19 +2697,19 @@
         <v>128192</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>109436</v>
+        <v>109981</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>147750</v>
+        <v>147072</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3173180027141644</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2708896038724302</v>
+        <v>0.2722400826605202</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3657292664408244</v>
+        <v>0.3640529226382296</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>258</v>
@@ -2718,19 +2718,19 @@
         <v>256188</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>230951</v>
+        <v>229949</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>283913</v>
+        <v>279622</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.324003656181748</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2920852722350594</v>
+        <v>0.2908185980728449</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3590666585828647</v>
+        <v>0.3536408488103269</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>7551</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3354</v>
+        <v>2677</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14237</v>
+        <v>13795</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01952498304902782</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008673950105182753</v>
+        <v>0.006921955710063536</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03681443391051389</v>
+        <v>0.03567369018150825</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2768,19 +2768,19 @@
         <v>7786</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3850</v>
+        <v>3016</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13946</v>
+        <v>15343</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01927231785601319</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009530448478239154</v>
+        <v>0.007464372599675671</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03452015145947519</v>
+        <v>0.03797982804638209</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>16</v>
@@ -2789,19 +2789,19 @@
         <v>15336</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8921</v>
+        <v>9102</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>24098</v>
+        <v>24010</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01939589020737097</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0112825571460719</v>
+        <v>0.01151127708896483</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03047695539641451</v>
+        <v>0.03036509181295935</v>
       </c>
     </row>
     <row r="33">
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4278</v>
+        <v>5889</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003307389838312517</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01466530018686675</v>
+        <v>0.02018740818178349</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -2914,19 +2914,19 @@
         <v>5202</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1900</v>
+        <v>1908</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11376</v>
+        <v>11861</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01516853502444272</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005541278041626018</v>
+        <v>0.005562992720318475</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03317355827205148</v>
+        <v>0.03458661263959261</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -2935,19 +2935,19 @@
         <v>6167</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12757</v>
+        <v>12536</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.00971676617325881</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003440713849168173</v>
+        <v>0.003443779953239288</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02010194549100666</v>
+        <v>0.0197529437761122</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>25289</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16477</v>
+        <v>17090</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>35587</v>
+        <v>36870</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08669581313247644</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05648792819423117</v>
+        <v>0.05858727227257127</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1219989816676015</v>
+        <v>0.1263977510367411</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>21</v>
@@ -2985,19 +2985,19 @@
         <v>20292</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12522</v>
+        <v>12711</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>29501</v>
+        <v>29987</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05917233964046631</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03651386757795502</v>
+        <v>0.03706575810704286</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08602387565931174</v>
+        <v>0.08744287832969193</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>47</v>
@@ -3006,19 +3006,19 @@
         <v>45581</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>33447</v>
+        <v>34520</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>58979</v>
+        <v>60074</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07182302497526764</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05270265016951261</v>
+        <v>0.05439457006934537</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09293457469007724</v>
+        <v>0.09465933557413339</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>163285</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>145658</v>
+        <v>144642</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>179092</v>
+        <v>179174</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5597755530114498</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4993466315271506</v>
+        <v>0.4958638515412793</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6139668471453419</v>
+        <v>0.6142476838606534</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>231</v>
@@ -3056,19 +3056,19 @@
         <v>214581</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>198530</v>
+        <v>197850</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>231300</v>
+        <v>231664</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6257212349708777</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.578917264551274</v>
+        <v>0.5769328552011582</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6744729967900227</v>
+        <v>0.6755346580126301</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>403</v>
@@ -3077,19 +3077,19 @@
         <v>377866</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>353289</v>
+        <v>353394</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>400559</v>
+        <v>401450</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5954104505453659</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5566844674507108</v>
+        <v>0.5568501872471009</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6311687649873651</v>
+        <v>0.6325728940426085</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>97110</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>81938</v>
+        <v>81389</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>113492</v>
+        <v>114549</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3329127211286865</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2809014151672696</v>
+        <v>0.2790190122454678</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3890745046696999</v>
+        <v>0.3926979471986751</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>106</v>
@@ -3127,19 +3127,19 @@
         <v>95363</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>81678</v>
+        <v>79176</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>112322</v>
+        <v>110652</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2780799751872351</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.238174502987293</v>
+        <v>0.2308796480809817</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3275324455092063</v>
+        <v>0.3226612853448794</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>203</v>
@@ -3148,19 +3148,19 @@
         <v>192473</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>169940</v>
+        <v>170242</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>214564</v>
+        <v>215742</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3032828920774225</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.267777042209501</v>
+        <v>0.2682538927057523</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3380923845391648</v>
+        <v>0.3399491660102627</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>5049</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1769</v>
+        <v>2419</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>10646</v>
+        <v>10532</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01730852288907479</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.006065722530766786</v>
+        <v>0.008294563870991822</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03649765872105335</v>
+        <v>0.03610744266332264</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -3198,19 +3198,19 @@
         <v>7496</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3678</v>
+        <v>3630</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13908</v>
+        <v>14517</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02185791517697813</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01072443507925033</v>
+        <v>0.01058541206187814</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04055490578944528</v>
+        <v>0.0423325016489643</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>14</v>
@@ -3219,19 +3219,19 @@
         <v>12545</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6894</v>
+        <v>6574</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>19973</v>
+        <v>19948</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01976686622868517</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0108627299652738</v>
+        <v>0.01035802552447529</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03147145017628447</v>
+        <v>0.03143167088534519</v>
       </c>
     </row>
     <row r="39">
@@ -3336,19 +3336,19 @@
         <v>4904</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1185</v>
+        <v>1390</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11577</v>
+        <v>12330</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01468805088000358</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003550007501690816</v>
+        <v>0.004164072827260312</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03467177487758327</v>
+        <v>0.03692504434190667</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -3357,19 +3357,19 @@
         <v>4904</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>12479</v>
+        <v>11244</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.009019012062513557</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002188558673509875</v>
+        <v>0.002168061432448629</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02294833510071664</v>
+        <v>0.02067701068836642</v>
       </c>
     </row>
     <row r="41">
@@ -3386,19 +3386,19 @@
         <v>13198</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7744</v>
+        <v>7624</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20997</v>
+        <v>20650</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0628803833551706</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03689588927193539</v>
+        <v>0.03632618080812664</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1000410844970785</v>
+        <v>0.09838626815512121</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>24</v>
@@ -3407,19 +3407,19 @@
         <v>26138</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>17296</v>
+        <v>17168</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>37806</v>
+        <v>38750</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07827890250874747</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05179881405997105</v>
+        <v>0.05141463187039502</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1132237778360505</v>
+        <v>0.1160496781263443</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>39</v>
@@ -3428,19 +3428,19 @@
         <v>39335</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>28217</v>
+        <v>29791</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>51640</v>
+        <v>52341</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07233564948445854</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05188888090227492</v>
+        <v>0.05478421543936115</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09496378504108287</v>
+        <v>0.0962515009396408</v>
       </c>
     </row>
     <row r="42">
@@ -3457,19 +3457,19 @@
         <v>135370</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>119353</v>
+        <v>120649</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>146946</v>
+        <v>147349</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.644978762343393</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5686626703060801</v>
+        <v>0.5748411736182404</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7001337967290394</v>
+        <v>0.7020532862491922</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>178</v>
@@ -3478,19 +3478,19 @@
         <v>207111</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>187772</v>
+        <v>187972</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>225213</v>
+        <v>225988</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6202624760202422</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5623476687715918</v>
+        <v>0.5629464384546469</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6744765231827695</v>
+        <v>0.6767958168069673</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>318</v>
@@ -3499,19 +3499,19 @@
         <v>342481</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>320064</v>
+        <v>320427</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>365182</v>
+        <v>366508</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6298020390116053</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5885791801039962</v>
+        <v>0.589246450655152</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6715491873357367</v>
+        <v>0.6739861280091988</v>
       </c>
     </row>
     <row r="43">
@@ -3528,19 +3528,19 @@
         <v>57114</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>45231</v>
+        <v>45659</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>70058</v>
+        <v>70433</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2721245231821611</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2155073928293521</v>
+        <v>0.2175431551135663</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3337938503772807</v>
+        <v>0.335580727625942</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>78</v>
@@ -3549,19 +3549,19 @@
         <v>88805</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>72202</v>
+        <v>72204</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>106179</v>
+        <v>107684</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2659563875566581</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2162329867451658</v>
+        <v>0.2162401638370201</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3179875340004966</v>
+        <v>0.3224954274696717</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>139</v>
@@ -3570,19 +3570,19 @@
         <v>145919</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>124857</v>
+        <v>125969</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>166751</v>
+        <v>167266</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2683370574343834</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2296054006324555</v>
+        <v>0.2316498757194997</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3066450536807015</v>
+        <v>0.3075916897474541</v>
       </c>
     </row>
     <row r="44">
@@ -3599,19 +3599,19 @@
         <v>4201</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>973</v>
+        <v>1493</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>10642</v>
+        <v>9495</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02001633111927524</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.004634955387180206</v>
+        <v>0.007111906048132677</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05070440700014828</v>
+        <v>0.04523755744182635</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>6</v>
@@ -3620,19 +3620,19 @@
         <v>6950</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2298</v>
+        <v>2496</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14778</v>
+        <v>14077</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02081418303434858</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006881343600494676</v>
+        <v>0.007473761451901613</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04425880530332202</v>
+        <v>0.04215752968973012</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>10</v>
@@ -3641,19 +3641,19 @@
         <v>11151</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4667</v>
+        <v>5756</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>19485</v>
+        <v>20333</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02050624200703928</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.008581606191347981</v>
+        <v>0.01058473220988794</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03583124653079747</v>
+        <v>0.03739078749418533</v>
       </c>
     </row>
     <row r="45">
@@ -3745,19 +3745,19 @@
         <v>38277</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>27437</v>
+        <v>27770</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>54113</v>
+        <v>53404</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.011685413146105</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.008375900668696439</v>
+        <v>0.008477773284677527</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01651978972038021</v>
+        <v>0.01630331228547549</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>45</v>
@@ -3766,19 +3766,19 @@
         <v>47430</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>34382</v>
+        <v>34206</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>63616</v>
+        <v>61879</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01404921879361999</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0101841778618978</v>
+        <v>0.01013212670872046</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0188436415041565</v>
+        <v>0.01832917649505444</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>81</v>
@@ -3787,19 +3787,19 @@
         <v>85707</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>68142</v>
+        <v>68322</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>106474</v>
+        <v>107103</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01288514093119944</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01024442590240466</v>
+        <v>0.01027144621570809</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01600719372512768</v>
+        <v>0.01610172087670169</v>
       </c>
     </row>
     <row r="47">
@@ -3816,19 +3816,19 @@
         <v>416492</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>379485</v>
+        <v>380729</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>458090</v>
+        <v>455050</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1271477262642809</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1158499833455272</v>
+        <v>0.1162296622829518</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1398468603305908</v>
+        <v>0.1389186430978059</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>295</v>
@@ -3837,19 +3837,19 @@
         <v>301649</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>268211</v>
+        <v>265722</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>334608</v>
+        <v>332344</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08935156150686087</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07944710992163612</v>
+        <v>0.07870984700184046</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0991144216446386</v>
+        <v>0.0984439272519993</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>705</v>
@@ -3858,19 +3858,19 @@
         <v>718141</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>670718</v>
+        <v>665949</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>771900</v>
+        <v>766615</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1079646309547515</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1008350952425225</v>
+        <v>0.1001181478978053</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1160467663254496</v>
+        <v>0.1152521620633856</v>
       </c>
     </row>
     <row r="48">
@@ -3887,19 +3887,19 @@
         <v>1937503</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1881240</v>
+        <v>1879900</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1992719</v>
+        <v>1989413</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.5914853177933581</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5743093669032893</v>
+        <v>0.5739001301943232</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.6083416312359781</v>
+        <v>0.607332634016902</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2064</v>
@@ -3908,19 +3908,19 @@
         <v>2115729</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2055473</v>
+        <v>2058032</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>2168516</v>
+        <v>2168128</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.626701748829093</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.6088532418472118</v>
+        <v>0.6096111161725647</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.6423376593135348</v>
+        <v>0.6422227137903231</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3966</v>
@@ -3929,19 +3929,19 @@
         <v>4053232</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3967146</v>
+        <v>3972646</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>4126014</v>
+        <v>4131923</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.6093590930125051</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5964169166587774</v>
+        <v>0.5972437290776423</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.6203009758103335</v>
+        <v>0.6211893323860322</v>
       </c>
     </row>
     <row r="49">
@@ -3958,19 +3958,19 @@
         <v>836135</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>789765</v>
+        <v>790597</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>886647</v>
+        <v>889599</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2552572515124371</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2411012877866377</v>
+        <v>0.2413553126452909</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2706774602481354</v>
+        <v>0.2715786964533132</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>843</v>
@@ -3979,19 +3979,19 @@
         <v>863413</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>813166</v>
+        <v>816891</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>917616</v>
+        <v>915610</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2557522824127247</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2408685999602609</v>
+        <v>0.241971748225008</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2718076497459437</v>
+        <v>0.2712134937729807</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1660</v>
@@ -4000,19 +4000,19 @@
         <v>1699549</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1628092</v>
+        <v>1630204</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1770580</v>
+        <v>1777786</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.255508499886507</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2447657420826131</v>
+        <v>0.2450832573135995</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2661873715592537</v>
+        <v>0.2672707023309215</v>
       </c>
     </row>
     <row r="50">
@@ -4029,19 +4029,19 @@
         <v>47249</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>35389</v>
+        <v>35273</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>62818</v>
+        <v>62063</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01442429128381885</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01080374652833734</v>
+        <v>0.01076811947743824</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01917731097910834</v>
+        <v>0.01894667439956564</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>47</v>
@@ -4050,19 +4050,19 @@
         <v>47754</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>36340</v>
+        <v>36010</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>63709</v>
+        <v>62307</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01414518845770146</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01076421062480087</v>
+        <v>0.01066642791183892</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.01887130733673862</v>
+        <v>0.01845610430824304</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>95</v>
@@ -4071,19 +4071,19 @@
         <v>95003</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>77475</v>
+        <v>78160</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>115716</v>
+        <v>116635</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01428263521503696</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01164758622865611</v>
+        <v>0.01175045647914678</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01739664612219314</v>
+        <v>0.01753479269736205</v>
       </c>
     </row>
     <row r="51">
@@ -4418,19 +4418,19 @@
         <v>13990</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8094</v>
+        <v>7268</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23323</v>
+        <v>22655</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03095545667096331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01790954695834313</v>
+        <v>0.01608157898808121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0516056169811784</v>
+        <v>0.05012726581321303</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4439,19 +4439,19 @@
         <v>20860</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12785</v>
+        <v>12590</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31524</v>
+        <v>31546</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04848584645092597</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02971653945414494</v>
+        <v>0.0292629668853677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07327209231437305</v>
+        <v>0.07332450535536233</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -4460,19 +4460,19 @@
         <v>34850</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23346</v>
+        <v>24425</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47823</v>
+        <v>47228</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03950494503853613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02646424863627489</v>
+        <v>0.02768772570143489</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05421108195325936</v>
+        <v>0.05353647908785977</v>
       </c>
     </row>
     <row r="5">
@@ -4489,19 +4489,19 @@
         <v>50247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37956</v>
+        <v>37236</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64748</v>
+        <v>64824</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1111796431834153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08398567367152636</v>
+        <v>0.08239180638505622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1432665975552397</v>
+        <v>0.143434804409462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -4510,19 +4510,19 @@
         <v>74904</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60491</v>
+        <v>60861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91266</v>
+        <v>91220</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1741024426783634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1406017355631855</v>
+        <v>0.1414626059092472</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2121341776383098</v>
+        <v>0.2120258219014239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -4531,19 +4531,19 @@
         <v>125151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103584</v>
+        <v>105865</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145961</v>
+        <v>145685</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.141866795556494</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1174195831119224</v>
+        <v>0.1200047388274121</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1654563735746747</v>
+        <v>0.1651441128269447</v>
       </c>
     </row>
     <row r="6">
@@ -4560,19 +4560,19 @@
         <v>291637</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>270296</v>
+        <v>269592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>310954</v>
+        <v>313415</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6453008893421189</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5980785409690557</v>
+        <v>0.596520988001654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6880426005592931</v>
+        <v>0.6934870714686258</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>244</v>
@@ -4581,19 +4581,19 @@
         <v>248775</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>227502</v>
+        <v>227156</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>269641</v>
+        <v>267622</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5782381763022514</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5287921963261174</v>
+        <v>0.5279881294180883</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6267362153502855</v>
+        <v>0.6220447203495258</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>528</v>
@@ -4602,19 +4602,19 @@
         <v>540413</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>510644</v>
+        <v>512159</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>571340</v>
+        <v>569242</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6125947206699559</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5788503597434153</v>
+        <v>0.5805669087527738</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6476534974660755</v>
+        <v>0.6452748578867565</v>
       </c>
     </row>
     <row r="7">
@@ -4631,19 +4631,19 @@
         <v>88342</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73555</v>
+        <v>71776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>106261</v>
+        <v>106502</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1954723605767168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1627537885833646</v>
+        <v>0.1588172256421467</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2351210813386285</v>
+        <v>0.2356544348282019</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -4652,19 +4652,19 @@
         <v>75476</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59430</v>
+        <v>62141</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93083</v>
+        <v>92621</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1754307467254772</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1381358345928372</v>
+        <v>0.1444356348506286</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2163563749635146</v>
+        <v>0.2152828618314017</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -4673,19 +4673,19 @@
         <v>163817</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141735</v>
+        <v>143847</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>187139</v>
+        <v>189280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1856981600803646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1606660705704728</v>
+        <v>0.1630608844826458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2121346783328236</v>
+        <v>0.2145622349434548</v>
       </c>
     </row>
     <row r="8">
@@ -4702,19 +4702,19 @@
         <v>7724</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3738</v>
+        <v>3777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14546</v>
+        <v>14621</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01709165022678565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008271590984312833</v>
+        <v>0.008357369149421357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03218509392976483</v>
+        <v>0.03235107932934485</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -4723,19 +4723,19 @@
         <v>10215</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5179</v>
+        <v>5073</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19284</v>
+        <v>17356</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02374278784298212</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01203836134913886</v>
+        <v>0.01179048010651807</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04482156230042374</v>
+        <v>0.04034035642178971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -4744,19 +4744,19 @@
         <v>17939</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11191</v>
+        <v>10925</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26970</v>
+        <v>26806</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02033537865464944</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01268585879864613</v>
+        <v>0.01238443418692154</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0305718008646593</v>
+        <v>0.03038679071962945</v>
       </c>
     </row>
     <row r="9">
@@ -4848,19 +4848,19 @@
         <v>9152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4281</v>
+        <v>4004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17161</v>
+        <v>16888</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01333711603725288</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006238631505296289</v>
+        <v>0.005834914677686279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02500881170899138</v>
+        <v>0.02461014533130702</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -4869,19 +4869,19 @@
         <v>17645</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10303</v>
+        <v>10126</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26822</v>
+        <v>26465</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02896991042601982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01691483936914259</v>
+        <v>0.01662536367460576</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04403500615754079</v>
+        <v>0.0434496083207976</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -4890,19 +4890,19 @@
         <v>26797</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17834</v>
+        <v>18052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39056</v>
+        <v>38544</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02068817848590334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01376810779686813</v>
+        <v>0.01393651226319203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03015229850403873</v>
+        <v>0.0297570656888582</v>
       </c>
     </row>
     <row r="11">
@@ -4919,19 +4919,19 @@
         <v>78274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63256</v>
+        <v>62231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94981</v>
+        <v>96850</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1140668813593189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09218263177721879</v>
+        <v>0.09068819081548508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1384146132579666</v>
+        <v>0.1411384556001979</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -4940,19 +4940,19 @@
         <v>57750</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45440</v>
+        <v>44720</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74892</v>
+        <v>76183</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09481339151030398</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07460291497035122</v>
+        <v>0.07341980480270072</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1229562985096069</v>
+        <v>0.1250760292007642</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>131</v>
@@ -4961,19 +4961,19 @@
         <v>136024</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>116460</v>
+        <v>113456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>160072</v>
+        <v>161109</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1050132468833057</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08990921776864448</v>
+        <v>0.08759005621780047</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1235787396822401</v>
+        <v>0.1243797505681892</v>
       </c>
     </row>
     <row r="12">
@@ -4990,19 +4990,19 @@
         <v>420731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>392874</v>
+        <v>393869</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>444598</v>
+        <v>445165</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6131248982358874</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5725287516655198</v>
+        <v>0.5739791389103356</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.647905934031057</v>
+        <v>0.6487322506330617</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>340</v>
@@ -5011,19 +5011,19 @@
         <v>364743</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>341357</v>
+        <v>338879</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>390765</v>
+        <v>389520</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5988277819141463</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5604331695448957</v>
+        <v>0.5563651350364882</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.641550421866466</v>
+        <v>0.6395068909682186</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>748</v>
@@ -5032,19 +5032,19 @@
         <v>785474</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>746977</v>
+        <v>747304</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>821395</v>
+        <v>820580</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6064019162594688</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5766813160744184</v>
+        <v>0.5769340695855197</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6341332094847</v>
+        <v>0.6335044182662252</v>
       </c>
     </row>
     <row r="13">
@@ -5061,19 +5061,19 @@
         <v>165500</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142846</v>
+        <v>144598</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>187560</v>
+        <v>189432</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2411812008662504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2081667187587454</v>
+        <v>0.2107203214966507</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2733279130001911</v>
+        <v>0.2760564575769465</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -5082,19 +5082,19 @@
         <v>146529</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>127478</v>
+        <v>125658</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170130</v>
+        <v>169077</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2405687867491005</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2092901101787946</v>
+        <v>0.206303469833011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.279316764620319</v>
+        <v>0.2775866884097292</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>298</v>
@@ -5103,19 +5103,19 @@
         <v>312030</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>281696</v>
+        <v>283205</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>343743</v>
+        <v>345613</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2408932232783894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2174747783137413</v>
+        <v>0.2186403322048056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2653768064255713</v>
+        <v>0.2668199665950569</v>
       </c>
     </row>
     <row r="14">
@@ -5132,19 +5132,19 @@
         <v>12551</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6848</v>
+        <v>6374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20769</v>
+        <v>20850</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0182899035012905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009979865577228584</v>
+        <v>0.00928872955950545</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03026599712136974</v>
+        <v>0.03038467057270608</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -5153,19 +5153,19 @@
         <v>22427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14084</v>
+        <v>13940</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33357</v>
+        <v>33713</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03682012940042945</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02312233377979824</v>
+        <v>0.02288683127932155</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05476494393410937</v>
+        <v>0.05534923097116047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -5174,19 +5174,19 @@
         <v>34978</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25253</v>
+        <v>24269</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50645</v>
+        <v>48990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02700343509293288</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01949598116790815</v>
+        <v>0.01873644142773924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03909919853034823</v>
+        <v>0.03782158713366821</v>
       </c>
     </row>
     <row r="15">
@@ -5278,19 +5278,19 @@
         <v>7549</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3312</v>
+        <v>3398</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15139</v>
+        <v>16486</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01110140638154673</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004871178954274683</v>
+        <v>0.004997867724625915</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02226455364853292</v>
+        <v>0.02424426376802613</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -5299,19 +5299,19 @@
         <v>10587</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5331</v>
+        <v>4831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19519</v>
+        <v>19726</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01493563490231273</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007520850535310238</v>
+        <v>0.006815796860330081</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02753598183483921</v>
+        <v>0.02782766431361965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -5320,19 +5320,19 @@
         <v>18136</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10661</v>
+        <v>10009</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28571</v>
+        <v>29797</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01305838105775831</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007676442233779807</v>
+        <v>0.00720702533740919</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02057164063138061</v>
+        <v>0.0214548851495422</v>
       </c>
     </row>
     <row r="17">
@@ -5349,19 +5349,19 @@
         <v>57960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44162</v>
+        <v>44292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76653</v>
+        <v>75522</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08523806126904671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06494675870950324</v>
+        <v>0.06513768238772212</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1127282482606945</v>
+        <v>0.1110653714713106</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -5370,19 +5370,19 @@
         <v>65822</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51241</v>
+        <v>51605</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81404</v>
+        <v>85322</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09285664544633523</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07228691956466414</v>
+        <v>0.07279997575261701</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1148394476254411</v>
+        <v>0.1203664628765998</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>116</v>
@@ -5391,19 +5391,19 @@
         <v>123782</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>101857</v>
+        <v>103543</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>146087</v>
+        <v>145619</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08912655571396344</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07334019997453256</v>
+        <v>0.07455365925730735</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1051869963794077</v>
+        <v>0.1048498588279485</v>
       </c>
     </row>
     <row r="18">
@@ -5420,19 +5420,19 @@
         <v>405070</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>378569</v>
+        <v>378585</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>431091</v>
+        <v>431052</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5957100809481054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5567375083227556</v>
+        <v>0.5567610347070823</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.63397748170185</v>
+        <v>0.6339203889326217</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>400</v>
@@ -5441,19 +5441,19 @@
         <v>424195</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>396901</v>
+        <v>396851</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>452284</v>
+        <v>452406</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5984242546420374</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5599199158842775</v>
+        <v>0.5598481881361252</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6380488792134229</v>
+        <v>0.6382210236571788</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>790</v>
@@ -5462,19 +5462,19 @@
         <v>829265</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>789122</v>
+        <v>790002</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>864398</v>
+        <v>865270</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5970953841863181</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5681911095384533</v>
+        <v>0.5688244338328221</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.622391944415994</v>
+        <v>0.6230198358576307</v>
       </c>
     </row>
     <row r="19">
@@ -5491,19 +5491,19 @@
         <v>196629</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>173096</v>
+        <v>173872</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>221593</v>
+        <v>221337</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2891701873263922</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2545607032327654</v>
+        <v>0.2557029101576256</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3258819129924252</v>
+        <v>0.3255055434359121</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>171</v>
@@ -5512,19 +5512,19 @@
         <v>184475</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>159841</v>
+        <v>159627</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>209101</v>
+        <v>207824</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2602440972099503</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2254919552641121</v>
+        <v>0.2251900254102299</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2949846759109979</v>
+        <v>0.2931832259366349</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>357</v>
@@ -5533,19 +5533,19 @@
         <v>381104</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>347513</v>
+        <v>346908</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>416381</v>
+        <v>415902</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.27440642832426</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2502196331388803</v>
+        <v>0.2497842155242341</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2998067670320775</v>
+        <v>0.2994617087015332</v>
       </c>
     </row>
     <row r="20">
@@ -5562,19 +5562,19 @@
         <v>12770</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6833</v>
+        <v>6777</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20653</v>
+        <v>20356</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01878026407490901</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01004842084639243</v>
+        <v>0.009966206359639488</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03037267192659603</v>
+        <v>0.02993570273882088</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -5583,19 +5583,19 @@
         <v>23775</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15631</v>
+        <v>15301</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37247</v>
+        <v>35537</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03353936779936431</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02205104859210273</v>
+        <v>0.0215857836865515</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05254582599599698</v>
+        <v>0.05013266602192501</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -5604,19 +5604,19 @@
         <v>36545</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24629</v>
+        <v>25193</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49082</v>
+        <v>49690</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02631325071770013</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01773387636775556</v>
+        <v>0.01813997267413619</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03534066606804832</v>
+        <v>0.03577798743326614</v>
       </c>
     </row>
     <row r="21">
@@ -5708,19 +5708,19 @@
         <v>10111</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5139</v>
+        <v>5036</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18476</v>
+        <v>18984</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01647740721537714</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008374924827922339</v>
+        <v>0.008207028980011128</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03010999826068405</v>
+        <v>0.030938231955216</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -5729,19 +5729,19 @@
         <v>4394</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10795</v>
+        <v>11214</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007182136221987761</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001785644347924122</v>
+        <v>0.001767754117820765</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01764578469476521</v>
+        <v>0.01833052332946806</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -5750,19 +5750,19 @@
         <v>14504</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8039</v>
+        <v>7689</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24257</v>
+        <v>23657</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01183671974105691</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006560275034278724</v>
+        <v>0.006274603684087784</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01979586279522436</v>
+        <v>0.01930621868404182</v>
       </c>
     </row>
     <row r="23">
@@ -5779,19 +5779,19 @@
         <v>43488</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31302</v>
+        <v>31496</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>57594</v>
+        <v>56406</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07087358892049644</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05101254011800142</v>
+        <v>0.05132882911504617</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09386112059139189</v>
+        <v>0.09192554122630239</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -5800,19 +5800,19 @@
         <v>34887</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23927</v>
+        <v>23217</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>52175</v>
+        <v>50179</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05702606522901382</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03911137266209854</v>
+        <v>0.03795071007242397</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08528462086380952</v>
+        <v>0.08202256532723014</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>68</v>
@@ -5821,19 +5821,19 @@
         <v>78375</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>61051</v>
+        <v>61286</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>97306</v>
+        <v>98363</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06396017781165218</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04982242046029793</v>
+        <v>0.05001424037044765</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0794092509634681</v>
+        <v>0.0802718359763461</v>
       </c>
     </row>
     <row r="24">
@@ -5850,19 +5850,19 @@
         <v>369544</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>345797</v>
+        <v>342086</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>398875</v>
+        <v>393497</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.602250250159294</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5635499268850741</v>
+        <v>0.5575018957858573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6500518292426775</v>
+        <v>0.6412870622314151</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>359</v>
@@ -5871,19 +5871,19 @@
         <v>407555</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>380350</v>
+        <v>383937</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>430431</v>
+        <v>434118</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6661872427968958</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6217175977667562</v>
+        <v>0.6275812857106624</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7035797632546676</v>
+        <v>0.709606518497927</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>692</v>
@@ -5892,19 +5892,19 @@
         <v>777099</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>741504</v>
+        <v>742550</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>813179</v>
+        <v>810418</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6341709549015268</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6051230620973108</v>
+        <v>0.6059760957848174</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.663614708323456</v>
+        <v>0.6613616979192517</v>
       </c>
     </row>
     <row r="25">
@@ -5921,19 +5921,19 @@
         <v>167447</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145048</v>
+        <v>144902</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>192266</v>
+        <v>194038</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2728905163994719</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2363864784089342</v>
+        <v>0.2361481281154946</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3133380333809172</v>
+        <v>0.3162258579889821</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>134</v>
@@ -5942,19 +5942,19 @@
         <v>151483</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>129713</v>
+        <v>128709</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175345</v>
+        <v>174167</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2476131298249371</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2120276761213204</v>
+        <v>0.2103863761246727</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2866179487573285</v>
+        <v>0.2846921051235725</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>281</v>
@@ -5963,19 +5963,19 @@
         <v>318930</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>287223</v>
+        <v>289355</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>352217</v>
+        <v>353688</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2602707174346629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2343957632180069</v>
+        <v>0.2361351730201465</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.287435053253616</v>
+        <v>0.2886357605381534</v>
       </c>
     </row>
     <row r="26">
@@ -5992,19 +5992,19 @@
         <v>23015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13697</v>
+        <v>13371</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37144</v>
+        <v>36704</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03750823730536052</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02232294340947348</v>
+        <v>0.02179115854033699</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06053483986160673</v>
+        <v>0.05981694787185112</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -6013,19 +6013,19 @@
         <v>13454</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7306</v>
+        <v>6505</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24236</v>
+        <v>23473</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02199142592716557</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01194183378730602</v>
+        <v>0.01063268348954905</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03961639203816318</v>
+        <v>0.03836929554235615</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -6034,19 +6034,19 @@
         <v>36469</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>24873</v>
+        <v>24972</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53671</v>
+        <v>53683</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0297614301111012</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02029844275065839</v>
+        <v>0.02037919823329164</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04379950290544177</v>
+        <v>0.04380948475343316</v>
       </c>
     </row>
     <row r="27">
@@ -6138,19 +6138,19 @@
         <v>4804</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1309</v>
+        <v>1322</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11915</v>
+        <v>12157</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01118598655353339</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003048442839845259</v>
+        <v>0.003077540581696623</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02774628868910652</v>
+        <v>0.02830870332966218</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -6159,19 +6159,19 @@
         <v>4185</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10817</v>
+        <v>12322</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009439714003698082</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002327454144513403</v>
+        <v>0.002347984844913787</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02439589418234421</v>
+        <v>0.02779165131528537</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -6180,19 +6180,19 @@
         <v>8989</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3707</v>
+        <v>3403</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17965</v>
+        <v>17691</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01029889741295035</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004247130076097215</v>
+        <v>0.003899309505970413</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02058335131073572</v>
+        <v>0.02026953085716046</v>
       </c>
     </row>
     <row r="29">
@@ -6209,19 +6209,19 @@
         <v>16769</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10170</v>
+        <v>9470</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26360</v>
+        <v>27183</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03904891488595055</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02368252069752405</v>
+        <v>0.02205353461135447</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06138445713474337</v>
+        <v>0.06330020870147805</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -6230,19 +6230,19 @@
         <v>35454</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24830</v>
+        <v>24595</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49332</v>
+        <v>50790</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07996461276909543</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0560023544442455</v>
+        <v>0.05547096387750729</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1112635496671822</v>
+        <v>0.1145526028595192</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -6251,19 +6251,19 @@
         <v>52223</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>38779</v>
+        <v>38678</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68229</v>
+        <v>68419</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05983368372111168</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04442996334050915</v>
+        <v>0.04431509702612112</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07817160268372286</v>
+        <v>0.07839019008236671</v>
       </c>
     </row>
     <row r="30">
@@ -6280,19 +6280,19 @@
         <v>268092</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>247127</v>
+        <v>245387</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>289851</v>
+        <v>288916</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6242983147480786</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5754781112483877</v>
+        <v>0.5714267226777499</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6749688025410512</v>
+        <v>0.6727900223603127</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>244</v>
@@ -6301,19 +6301,19 @@
         <v>268308</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>245451</v>
+        <v>247402</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>287773</v>
+        <v>291227</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6051464181470126</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5535951134275029</v>
+        <v>0.5579954954574177</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6490489929650871</v>
+        <v>0.6568381258913716</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>489</v>
@@ -6322,19 +6322,19 @@
         <v>536400</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>507187</v>
+        <v>504836</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>566208</v>
+        <v>563160</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6145693411706281</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5810990658755869</v>
+        <v>0.5784061614736318</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6487216296506545</v>
+        <v>0.6452297843906138</v>
       </c>
     </row>
     <row r="31">
@@ -6351,19 +6351,19 @@
         <v>131694</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>112331</v>
+        <v>112284</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>151532</v>
+        <v>152031</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3066721213836278</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.261581483803302</v>
+        <v>0.2614727112878873</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3528691564327552</v>
+        <v>0.3540295773063931</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>114</v>
@@ -6372,19 +6372,19 @@
         <v>124939</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>105894</v>
+        <v>104801</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>145843</v>
+        <v>144851</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.281790381822699</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2388351536491052</v>
+        <v>0.2363710013833383</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3289364423165558</v>
+        <v>0.3266983937297612</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>234</v>
@@ -6393,19 +6393,19 @@
         <v>256633</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>229362</v>
+        <v>230777</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>284234</v>
+        <v>286388</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2940324443954068</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2627874355036055</v>
+        <v>0.2644080639703619</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3256549224867802</v>
+        <v>0.3281231939672443</v>
       </c>
     </row>
     <row r="32">
@@ -6422,19 +6422,19 @@
         <v>8071</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3913</v>
+        <v>3804</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>15586</v>
+        <v>15216</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01879466242880971</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00911170694422166</v>
+        <v>0.0088591487764573</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0362941256458536</v>
+        <v>0.03543339498052164</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -6443,19 +6443,19 @@
         <v>10490</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5678</v>
+        <v>5354</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18940</v>
+        <v>18146</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02365887325749483</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01280697907603178</v>
+        <v>0.01207562469312089</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04271837518326495</v>
+        <v>0.04092623490234859</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -6464,19 +6464,19 @@
         <v>18561</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>11221</v>
+        <v>11336</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28377</v>
+        <v>27892</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02126563329990308</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01285585724924018</v>
+        <v>0.01298835039990497</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03251217006609791</v>
+        <v>0.03195723461773923</v>
       </c>
     </row>
     <row r="33">
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5767</v>
+        <v>6681</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006199794559220912</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01874058663503489</v>
+        <v>0.0217100040810323</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6942</v>
+        <v>7611</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002891694415118814</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01052024061223969</v>
+        <v>0.0115341847938971</v>
       </c>
     </row>
     <row r="35">
@@ -6631,19 +6631,19 @@
         <v>14926</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>8385</v>
+        <v>8871</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>23843</v>
+        <v>23656</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04850131131198397</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02724524916181686</v>
+        <v>0.02882433578941661</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07747538425293063</v>
+        <v>0.0768681613574386</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>16</v>
@@ -6652,19 +6652,19 @@
         <v>16747</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9874</v>
+        <v>9899</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26875</v>
+        <v>26394</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04756792685921846</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02804673340341513</v>
+        <v>0.02811598179018431</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07633287870517462</v>
+        <v>0.07496758448468918</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -6673,19 +6673,19 @@
         <v>31674</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>22272</v>
+        <v>22616</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>43278</v>
+        <v>45242</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04800327396361669</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03375445644884412</v>
+        <v>0.03427504456862177</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06558991612618692</v>
+        <v>0.06856706673533396</v>
       </c>
     </row>
     <row r="36">
@@ -6702,19 +6702,19 @@
         <v>190439</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>173579</v>
+        <v>171653</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>210027</v>
+        <v>209470</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6188042315466284</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5640176223428049</v>
+        <v>0.5577590402058802</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6824497021145078</v>
+        <v>0.680640311808237</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>214</v>
@@ -6723,19 +6723,19 @@
         <v>221409</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>202654</v>
+        <v>204359</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>236923</v>
+        <v>239434</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6288748968701319</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5756064828587349</v>
+        <v>0.5804484636327005</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6729409343100038</v>
+        <v>0.6800726574798259</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>384</v>
@@ -6744,19 +6744,19 @@
         <v>411849</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>385348</v>
+        <v>387450</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>434783</v>
+        <v>438967</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6241777595062504</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5840148899434191</v>
+        <v>0.5871998516411747</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6589365834290463</v>
+        <v>0.6652763974811164</v>
       </c>
     </row>
     <row r="37">
@@ -6773,19 +6773,19 @@
         <v>89728</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>71926</v>
+        <v>73461</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>106469</v>
+        <v>107971</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2915577360827053</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2337131211051294</v>
+        <v>0.2387002105163989</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3459563633688668</v>
+        <v>0.350836974343087</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>95</v>
@@ -6794,19 +6794,19 @@
         <v>97297</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>81357</v>
+        <v>81654</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>113297</v>
+        <v>114921</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2763558682036186</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2310798218656889</v>
+        <v>0.2319234097676414</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.321802059583147</v>
+        <v>0.3264144449351779</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>178</v>
@@ -6815,19 +6815,19 @@
         <v>187025</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>166184</v>
+        <v>165216</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>211428</v>
+        <v>211525</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.283446289672496</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2518598445847451</v>
+        <v>0.2503938135849004</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3204300838735161</v>
+        <v>0.3205763019884283</v>
       </c>
     </row>
     <row r="38">
@@ -6844,19 +6844,19 @@
         <v>10752</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5869</v>
+        <v>5801</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>18760</v>
+        <v>18933</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0349369264994614</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01906931022718603</v>
+        <v>0.01885070480135953</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0609592287857846</v>
+        <v>0.06152050000651167</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>17</v>
@@ -6865,19 +6865,19 @@
         <v>16618</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>10636</v>
+        <v>10474</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>26656</v>
+        <v>26543</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.04720130806703111</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03021053460554199</v>
+        <v>0.02974845734164489</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.07571086136103594</v>
+        <v>0.07539009184422561</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>28</v>
@@ -6886,19 +6886,19 @@
         <v>27370</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>19590</v>
+        <v>17898</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>40147</v>
+        <v>37368</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04148098244251815</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.029688921888422</v>
+        <v>0.02712576048075825</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06084549330208435</v>
+        <v>0.05663294990428692</v>
       </c>
     </row>
     <row r="39">
@@ -7003,19 +7003,19 @@
         <v>5171</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1153</v>
+        <v>1957</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11847</v>
+        <v>14648</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01329306473489144</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00296442437032792</v>
+        <v>0.005030733387690457</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03045721766881751</v>
+        <v>0.03765664237264672</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -7024,19 +7024,19 @@
         <v>5171</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1939</v>
+        <v>1163</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13256</v>
+        <v>12840</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00809405350635924</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003035968842102629</v>
+        <v>0.001820152021775362</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02074966573700283</v>
+        <v>0.02009935108074894</v>
       </c>
     </row>
     <row r="41">
@@ -7053,19 +7053,19 @@
         <v>19972</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11981</v>
+        <v>12073</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>30725</v>
+        <v>31329</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.07993556283806197</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04795357123543686</v>
+        <v>0.04831888648169259</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1229721793359171</v>
+        <v>0.1253918740048253</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>24</v>
@@ -7074,19 +7074,19 @@
         <v>27475</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>18830</v>
+        <v>18413</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>42405</v>
+        <v>37882</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07063315085297457</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04840934006253234</v>
+        <v>0.04733802354696243</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1090157730941978</v>
+        <v>0.0973872448795796</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>41</v>
@@ -7095,19 +7095,19 @@
         <v>47447</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>33987</v>
+        <v>34330</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>62958</v>
+        <v>62890</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07427138968859526</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05320245721010392</v>
+        <v>0.0537384004979371</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09855206841829228</v>
+        <v>0.09844597805293322</v>
       </c>
     </row>
     <row r="42">
@@ -7124,19 +7124,19 @@
         <v>144088</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>128487</v>
+        <v>126578</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>161539</v>
+        <v>159888</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5766973294936742</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5142548496528161</v>
+        <v>0.506613420502692</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6465420773504802</v>
+        <v>0.63993261334955</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>209</v>
@@ -7145,19 +7145,19 @@
         <v>232623</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>212542</v>
+        <v>212405</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>252289</v>
+        <v>252205</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5980350572552946</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5464093023653555</v>
+        <v>0.5460574702184251</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6485936061775887</v>
+        <v>0.6483779963474552</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>338</v>
@@ -7166,19 +7166,19 @@
         <v>376711</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>348932</v>
+        <v>349751</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>403855</v>
+        <v>402778</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5896897216659142</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5462044620804568</v>
+        <v>0.5474861281703427</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6321787930615284</v>
+        <v>0.6304935583159207</v>
       </c>
     </row>
     <row r="43">
@@ -7195,19 +7195,19 @@
         <v>81521</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>65133</v>
+        <v>65775</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>96876</v>
+        <v>97811</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3262787462836729</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2606888817784685</v>
+        <v>0.2632559775239269</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.387734175508996</v>
+        <v>0.3914773969311839</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>109</v>
@@ -7216,19 +7216,19 @@
         <v>119303</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>100896</v>
+        <v>100152</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>136481</v>
+        <v>137903</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3067090674370464</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2593858691487836</v>
+        <v>0.2574747202327531</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3508705052052055</v>
+        <v>0.3545257798092933</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>182</v>
@@ -7237,19 +7237,19 @@
         <v>200824</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>177660</v>
+        <v>177093</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>228251</v>
+        <v>225640</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3143629066450453</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2781017891199569</v>
+        <v>0.277215317585557</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3572949537449121</v>
+        <v>0.3532086945294189</v>
       </c>
     </row>
     <row r="44">
@@ -7266,19 +7266,19 @@
         <v>4270</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>15185</v>
+        <v>11282</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01708836138459097</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.004039507832962861</v>
+        <v>0.004007460004649023</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06077821745444301</v>
+        <v>0.04515432378722483</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>4</v>
@@ -7287,19 +7287,19 @@
         <v>4407</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>10932</v>
+        <v>10064</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01132965971979298</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.002850303141649169</v>
+        <v>0.002853390304711909</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02810393066110586</v>
+        <v>0.0258727680708404</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7</v>
@@ -7308,19 +7308,19 @@
         <v>8677</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4229</v>
+        <v>3284</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>19135</v>
+        <v>18205</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01358192849408601</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006619439487364631</v>
+        <v>0.0051401659408867</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02995303604353129</v>
+        <v>0.0284968909625738</v>
       </c>
     </row>
     <row r="45">
@@ -7412,19 +7412,19 @@
         <v>47513</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>34482</v>
+        <v>34926</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>63738</v>
+        <v>64283</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01389769934533897</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01008596995121471</v>
+        <v>0.01021600957337964</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01864356207411191</v>
+        <v>0.01880300365934095</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>56</v>
@@ -7433,19 +7433,19 @@
         <v>62843</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>48837</v>
+        <v>47334</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>81992</v>
+        <v>81345</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01773020983993179</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01377869344477538</v>
+        <v>0.01335455402218139</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02313298764109078</v>
+        <v>0.02295050997653593</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>101</v>
@@ -7454,19 +7454,19 @@
         <v>110356</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>89170</v>
+        <v>90827</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>132185</v>
+        <v>133926</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01584852351836127</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01280594478223207</v>
+        <v>0.01304398765441818</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01898348947646153</v>
+        <v>0.01923359087447047</v>
       </c>
     </row>
     <row r="47">
@@ -7483,19 +7483,19 @@
         <v>281636</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>247089</v>
+        <v>248441</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>315262</v>
+        <v>315980</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08237936589779828</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.07227423516302789</v>
+        <v>0.07266978152329119</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09221515073716949</v>
+        <v>0.09242506714748872</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>291</v>
@@ -7504,19 +7504,19 @@
         <v>313040</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>278655</v>
+        <v>278602</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>351683</v>
+        <v>348194</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08832007885558341</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07861895517708779</v>
+        <v>0.07860398377197128</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0992228795827577</v>
+        <v>0.09823823688519739</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>558</v>
@@ -7525,19 +7525,19 @@
         <v>594676</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>549669</v>
+        <v>548813</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>642065</v>
+        <v>646835</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.08540330711319352</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.07893976280769216</v>
+        <v>0.07881680573874561</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09220908066238546</v>
+        <v>0.09289412994724776</v>
       </c>
     </row>
     <row r="48">
@@ -7554,19 +7554,19 @@
         <v>2089602</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2032172</v>
+        <v>2037159</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2151711</v>
+        <v>2151638</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.6112153641735469</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5944168763072823</v>
+        <v>0.5958757305445221</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.6293825003102661</v>
+        <v>0.6293610823637683</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2010</v>
@@ -7575,19 +7575,19 @@
         <v>2167609</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2104943</v>
+        <v>2111756</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>2222654</v>
+        <v>2226179</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.6115623951818228</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5938821336647229</v>
+        <v>0.5958041429842077</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.6270927233003446</v>
+        <v>0.6280872772136213</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3969</v>
@@ -7596,19 +7596,19 @@
         <v>4257211</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>4168498</v>
+        <v>4171117</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>4342822</v>
+        <v>4331774</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.6113920098685002</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5986516554072233</v>
+        <v>0.5990278115857222</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.6236869127864977</v>
+        <v>0.6221003192258995</v>
       </c>
     </row>
     <row r="49">
@@ -7625,19 +7625,19 @@
         <v>920862</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>866659</v>
+        <v>864856</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>972965</v>
+        <v>969658</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2693550616328956</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.253500717406303</v>
+        <v>0.2529732340943661</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2845955723970875</v>
+        <v>0.2836282086322682</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>834</v>
@@ -7646,19 +7646,19 @@
         <v>899503</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>847100</v>
+        <v>844138</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>948136</v>
+        <v>952824</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2537828390408371</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2389981458761946</v>
+        <v>0.2381623588154542</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2675039977708483</v>
+        <v>0.2688266756789706</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1692</v>
@@ -7667,19 +7667,19 @@
         <v>1820364</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1747956</v>
+        <v>1745607</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1908290</v>
+        <v>1895364</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2614284901849812</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2510296695930685</v>
+        <v>0.2506923650715666</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2740558110640336</v>
+        <v>0.2721994112911526</v>
       </c>
     </row>
     <row r="50">
@@ -7696,19 +7696,19 @@
         <v>79153</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>61797</v>
+        <v>62517</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>98500</v>
+        <v>101234</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02315250895042012</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01807583172325046</v>
+        <v>0.01828653233161738</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02881154858630372</v>
+        <v>0.02961140834036752</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>94</v>
@@ -7717,19 +7717,19 @@
         <v>101385</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>81937</v>
+        <v>81321</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>122685</v>
+        <v>125759</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02860447708182499</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02311750170675666</v>
+        <v>0.02294372475256344</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.0346138603873622</v>
+        <v>0.0354813796727885</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>167</v>
@@ -7738,19 +7738,19 @@
         <v>180538</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>152354</v>
+        <v>153139</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>209991</v>
+        <v>208269</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02592766931496384</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02188005121275587</v>
+        <v>0.02199285915909999</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.03015753056520791</v>
+        <v>0.02991024243833076</v>
       </c>
     </row>
     <row r="51">
@@ -8085,19 +8085,19 @@
         <v>10749</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5345</v>
+        <v>5453</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18661</v>
+        <v>19717</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02587789534145866</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01286899765992174</v>
+        <v>0.0131270733228368</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04492676286150243</v>
+        <v>0.047468323187438</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -8106,19 +8106,19 @@
         <v>15067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8299</v>
+        <v>9062</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23985</v>
+        <v>24739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03817057242376643</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02102464319151345</v>
+        <v>0.02295740190757253</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06076315612830538</v>
+        <v>0.06267134713986919</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -8127,19 +8127,19 @@
         <v>25816</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16695</v>
+        <v>16251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35914</v>
+        <v>36758</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03186767034003325</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02060781411486227</v>
+        <v>0.02006038765483546</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04433260067548376</v>
+        <v>0.04537384311220558</v>
       </c>
     </row>
     <row r="5">
@@ -8156,19 +8156,19 @@
         <v>72430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57735</v>
+        <v>58667</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88386</v>
+        <v>88896</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1743739393041256</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1389969517167733</v>
+        <v>0.1412406135206846</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2127884439038716</v>
+        <v>0.2140143276809947</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -8177,19 +8177,19 @@
         <v>68515</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54332</v>
+        <v>55170</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83977</v>
+        <v>84134</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1735706964452035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1376400702836525</v>
+        <v>0.1397636947955129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2127415710748954</v>
+        <v>0.2131385644884135</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>138</v>
@@ -8198,19 +8198,19 @@
         <v>140945</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120997</v>
+        <v>118106</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163866</v>
+        <v>161245</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1739825482375629</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.149359267255145</v>
+        <v>0.1457904865692325</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2022767045563792</v>
+        <v>0.199041193191028</v>
       </c>
     </row>
     <row r="6">
@@ -8227,19 +8227,19 @@
         <v>223384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>203746</v>
+        <v>202816</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>245077</v>
+        <v>243558</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.537791687122541</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.490514260022612</v>
+        <v>0.4882762716046033</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.590017943769154</v>
+        <v>0.586361813975764</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>221</v>
@@ -8248,19 +8248,19 @@
         <v>217389</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>197271</v>
+        <v>197719</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>235034</v>
+        <v>237235</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5507175658746366</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4997537171080984</v>
+        <v>0.5008866941455539</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5954195664947104</v>
+        <v>0.6009951646769224</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>431</v>
@@ -8269,19 +8269,19 @@
         <v>440772</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>408320</v>
+        <v>413419</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>468093</v>
+        <v>469783</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5440899982931272</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5040314659996047</v>
+        <v>0.5103256468444943</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5778153804966339</v>
+        <v>0.5799004546161581</v>
       </c>
     </row>
     <row r="7">
@@ -8298,19 +8298,19 @@
         <v>96953</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80380</v>
+        <v>81140</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115979</v>
+        <v>115864</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2334121531648178</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1935131857686258</v>
+        <v>0.1953428578980207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2792172042790744</v>
+        <v>0.2789407177246254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -8319,19 +8319,19 @@
         <v>85650</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69373</v>
+        <v>70580</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102545</v>
+        <v>102012</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.21698060596977</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1757452534819531</v>
+        <v>0.1788020646269652</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2597812748260051</v>
+        <v>0.2584300078834964</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>179</v>
@@ -8340,19 +8340,19 @@
         <v>182603</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>159534</v>
+        <v>160174</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>208734</v>
+        <v>207958</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.225405657108849</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1969288595223044</v>
+        <v>0.1977188693031535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2576613172874808</v>
+        <v>0.2567038432069331</v>
       </c>
     </row>
     <row r="8">
@@ -8369,19 +8369,19 @@
         <v>11857</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6118</v>
+        <v>6411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20091</v>
+        <v>20203</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02854432506705688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01472995816983175</v>
+        <v>0.01543342796907166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0483690210352099</v>
+        <v>0.0486391530128155</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -8393,16 +8393,16 @@
         <v>3783</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15419</v>
+        <v>16166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0205605592866235</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009584726128525249</v>
+        <v>0.009584505774937241</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03906201410639119</v>
+        <v>0.04095504372098793</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -8411,19 +8411,19 @@
         <v>19973</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12062</v>
+        <v>12300</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30934</v>
+        <v>30738</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02465412602042761</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01488875722617709</v>
+        <v>0.01518308105885507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03818544894278761</v>
+        <v>0.03794256416003484</v>
       </c>
     </row>
     <row r="9">
@@ -8515,19 +8515,19 @@
         <v>11010</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5809</v>
+        <v>6076</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18784</v>
+        <v>19228</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0187059153102342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00986995919794279</v>
+        <v>0.01032261461111708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03191392466646909</v>
+        <v>0.03266775086083719</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -8536,19 +8536,19 @@
         <v>10812</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4973</v>
+        <v>5504</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18814</v>
+        <v>18429</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01921902151465781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008840065542664793</v>
+        <v>0.009784094602233798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03344364797893106</v>
+        <v>0.03275948049518199</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -8557,19 +8557,19 @@
         <v>21822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14038</v>
+        <v>14380</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31521</v>
+        <v>32131</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01895667050698933</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0121948844760172</v>
+        <v>0.01249196554563146</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02738277869746639</v>
+        <v>0.02791219433819064</v>
       </c>
     </row>
     <row r="11">
@@ -8586,19 +8586,19 @@
         <v>59005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45175</v>
+        <v>45214</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76066</v>
+        <v>75552</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1002495461540386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07675225344295535</v>
+        <v>0.0768184258954631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1292368838619812</v>
+        <v>0.128363415978016</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -8607,19 +8607,19 @@
         <v>65839</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51138</v>
+        <v>51673</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80753</v>
+        <v>81000</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1170346794125076</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09090236962838223</v>
+        <v>0.09185254488995107</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1435451464946379</v>
+        <v>0.1439835613089557</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>124</v>
@@ -8628,19 +8628,19 @@
         <v>124844</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>104063</v>
+        <v>105787</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>147266</v>
+        <v>151724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1084524471451046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09039964796677141</v>
+        <v>0.09189760643369758</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1279302213013725</v>
+        <v>0.1318029687944514</v>
       </c>
     </row>
     <row r="12">
@@ -8657,19 +8657,19 @@
         <v>318765</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>294457</v>
+        <v>295554</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>341666</v>
+        <v>343463</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5415855217754114</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.500285889504938</v>
+        <v>0.5021495110048328</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5804943216343608</v>
+        <v>0.5835470389437156</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>311</v>
@@ -8678,19 +8678,19 @@
         <v>304081</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>280452</v>
+        <v>281777</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>325446</v>
+        <v>325281</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5405286192104798</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4985249410670923</v>
+        <v>0.5008816162287384</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5785050732906366</v>
+        <v>0.5782118672574514</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>622</v>
@@ -8699,19 +8699,19 @@
         <v>622846</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>586924</v>
+        <v>582787</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>655583</v>
+        <v>652268</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.54106901309098</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5098628542403385</v>
+        <v>0.5062693861519979</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5695072965977775</v>
+        <v>0.5666274502401847</v>
       </c>
     </row>
     <row r="13">
@@ -8728,19 +8728,19 @@
         <v>185750</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>165704</v>
+        <v>163927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210171</v>
+        <v>207971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3155907117167281</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2815326056319998</v>
+        <v>0.278513148030987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.357082773027467</v>
+        <v>0.3533455812355125</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -8749,19 +8749,19 @@
         <v>167444</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>147144</v>
+        <v>145730</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189163</v>
+        <v>187019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2976452495782583</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2615602555908353</v>
+        <v>0.259046746972833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.336252892597266</v>
+        <v>0.3324410253034952</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>348</v>
@@ -8770,19 +8770,19 @@
         <v>353194</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>322232</v>
+        <v>320580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>389686</v>
+        <v>383283</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3068207575618204</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2799243766526127</v>
+        <v>0.2784893263603529</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3385220911027482</v>
+        <v>0.3329596022640804</v>
       </c>
     </row>
     <row r="14">
@@ -8799,19 +8799,19 @@
         <v>14048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7925</v>
+        <v>7132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24015</v>
+        <v>23030</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02386830504358766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01346420179975564</v>
+        <v>0.0121168119468215</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04080194951641451</v>
+        <v>0.03912826377144955</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -8820,19 +8820,19 @@
         <v>14386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7646</v>
+        <v>7679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23764</v>
+        <v>23881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02557243028409647</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01359171213313958</v>
+        <v>0.013650191873318</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04224188556134154</v>
+        <v>0.04245113005614747</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -8841,19 +8841,19 @@
         <v>28434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19321</v>
+        <v>18637</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41627</v>
+        <v>40786</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02470111169510573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01678427158981604</v>
+        <v>0.01618991161421763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0361611906420358</v>
+        <v>0.03543088400633983</v>
       </c>
     </row>
     <row r="15">
@@ -8945,19 +8945,19 @@
         <v>4839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13178</v>
+        <v>12015</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007253567447748926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001896781638793625</v>
+        <v>0.001892915590778425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01975370185922033</v>
+        <v>0.01801007211570652</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -8966,19 +8966,19 @@
         <v>6239</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1963</v>
+        <v>2485</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13416</v>
+        <v>12649</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009444749940656255</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002971226044579459</v>
+        <v>0.003762292698864125</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02030988026424542</v>
+        <v>0.0191489775927588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -8987,19 +8987,19 @@
         <v>11078</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5415</v>
+        <v>5584</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19787</v>
+        <v>19540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00834374084382091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004078491941669891</v>
+        <v>0.004206018874645175</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01490300797318258</v>
+        <v>0.01471737283889044</v>
       </c>
     </row>
     <row r="17">
@@ -9016,19 +9016,19 @@
         <v>79226</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64717</v>
+        <v>63775</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99148</v>
+        <v>98536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1187558940986932</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09700840362680481</v>
+        <v>0.09559609277968038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1486193294065593</v>
+        <v>0.1477018811150212</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -9037,19 +9037,19 @@
         <v>71875</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57318</v>
+        <v>58538</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89038</v>
+        <v>90886</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.108808509085253</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08677176733833959</v>
+        <v>0.08861778915138602</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1347903308721025</v>
+        <v>0.1375887244054104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>148</v>
@@ -9058,19 +9058,19 @@
         <v>151100</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>129379</v>
+        <v>129454</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178248</v>
+        <v>176727</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.113806797189951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09744652204414436</v>
+        <v>0.09750338062912169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1342538730102459</v>
+        <v>0.1331086773938568</v>
       </c>
     </row>
     <row r="18">
@@ -9087,19 +9087,19 @@
         <v>382712</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>356656</v>
+        <v>356999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>407357</v>
+        <v>410162</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.573670517469434</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5346125183042741</v>
+        <v>0.5351280658061073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6106126965473156</v>
+        <v>0.6148161138789655</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>379</v>
@@ -9108,19 +9108,19 @@
         <v>377505</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>352153</v>
+        <v>352655</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>402331</v>
+        <v>402690</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5714904197118233</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5331108978681495</v>
+        <v>0.5338704804002562</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.609072312044295</v>
+        <v>0.6096169700396856</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>744</v>
@@ -9129,19 +9129,19 @@
         <v>760218</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>726304</v>
+        <v>720267</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>796331</v>
+        <v>794846</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5725858590332351</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5470426326895793</v>
+        <v>0.5424958675306298</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5997858889298634</v>
+        <v>0.5986671141039216</v>
       </c>
     </row>
     <row r="19">
@@ -9158,19 +9158,19 @@
         <v>186121</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>163255</v>
+        <v>162064</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>209334</v>
+        <v>210201</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2789880884960888</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2447131510898645</v>
+        <v>0.2429273301377548</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3137827509009999</v>
+        <v>0.3150832497687105</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>192</v>
@@ -9179,19 +9179,19 @@
         <v>189483</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>166634</v>
+        <v>166714</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>214140</v>
+        <v>211917</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2868505631926313</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2522601487799342</v>
+        <v>0.2523817303013809</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3241782601374188</v>
+        <v>0.3208122156635116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>371</v>
@@ -9200,19 +9200,19 @@
         <v>375604</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>343844</v>
+        <v>342970</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>409145</v>
+        <v>410239</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2828998853314527</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2589788648652846</v>
+        <v>0.2583207194861705</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.308162527523682</v>
+        <v>0.3089862096031284</v>
       </c>
     </row>
     <row r="20">
@@ -9229,19 +9229,19 @@
         <v>14231</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7674</v>
+        <v>7127</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23477</v>
+        <v>23575</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02133193248803503</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01150323267946715</v>
+        <v>0.01068354049576725</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03519170894159356</v>
+        <v>0.03533775044595509</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -9250,19 +9250,19 @@
         <v>15461</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8612</v>
+        <v>8891</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26460</v>
+        <v>24567</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02340575806963607</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01303717299483967</v>
+        <v>0.01346019561998536</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04005606277960073</v>
+        <v>0.03719157994437512</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -9271,19 +9271,19 @@
         <v>29692</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20497</v>
+        <v>19954</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44636</v>
+        <v>42077</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02236371760154022</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01543796779806676</v>
+        <v>0.01502943381884244</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03361886660970863</v>
+        <v>0.03169159850823799</v>
       </c>
     </row>
     <row r="21">
@@ -9375,19 +9375,19 @@
         <v>4560</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1130</v>
+        <v>1019</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11087</v>
+        <v>11108</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007101027991291167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001759760483052458</v>
+        <v>0.001587003634932831</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01726603981790212</v>
+        <v>0.01729832348038249</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -9396,19 +9396,19 @@
         <v>7708</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3286</v>
+        <v>3347</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15161</v>
+        <v>15515</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01196328993693046</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005100150129870849</v>
+        <v>0.005194219414307193</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02353132078493729</v>
+        <v>0.02408144983515532</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -9417,19 +9417,19 @@
         <v>12268</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6741</v>
+        <v>6426</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22074</v>
+        <v>22301</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009536235619297914</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005240208352354033</v>
+        <v>0.00499523139295417</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01715942132187503</v>
+        <v>0.01733576116474511</v>
       </c>
     </row>
     <row r="23">
@@ -9446,19 +9446,19 @@
         <v>58562</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44195</v>
+        <v>43121</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>76734</v>
+        <v>74846</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09120018526065751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06882624437688845</v>
+        <v>0.06715288982102156</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1194997519182977</v>
+        <v>0.1165584405438837</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>48</v>
@@ -9467,19 +9467,19 @@
         <v>54878</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>40885</v>
+        <v>40804</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72265</v>
+        <v>71345</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.085176763839379</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06345763587978505</v>
+        <v>0.06333138243770171</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1121626018699246</v>
+        <v>0.1107346153770985</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>99</v>
@@ -9488,19 +9488,19 @@
         <v>113441</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>95012</v>
+        <v>92842</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>139103</v>
+        <v>138748</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08818342434654183</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07385768722771589</v>
+        <v>0.0721709086274336</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1081318421242179</v>
+        <v>0.1078562833350032</v>
       </c>
     </row>
     <row r="24">
@@ -9517,19 +9517,19 @@
         <v>353312</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>327539</v>
+        <v>324647</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>378543</v>
+        <v>378748</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5502185097296159</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5100823595236332</v>
+        <v>0.5055786434834616</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.58951159569515</v>
+        <v>0.5898303132168989</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>330</v>
@@ -9538,19 +9538,19 @@
         <v>354582</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>328370</v>
+        <v>327325</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>381333</v>
+        <v>380798</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5503482057045012</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5096638867377998</v>
+        <v>0.5080427817234291</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5918680915860016</v>
+        <v>0.5910381348014861</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>650</v>
@@ -9559,19 +9559,19 @@
         <v>707894</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>670139</v>
+        <v>670564</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>744704</v>
+        <v>745998</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5502834664577588</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5209347050951689</v>
+        <v>0.5212649974818487</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5788978190811893</v>
+        <v>0.5799040250993202</v>
       </c>
     </row>
     <row r="25">
@@ -9588,19 +9588,19 @@
         <v>213533</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>190531</v>
+        <v>189444</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>239181</v>
+        <v>241363</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3325387928904963</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2967173119143999</v>
+        <v>0.2950237163615944</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3724804096401294</v>
+        <v>0.3758790822816882</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>193</v>
@@ -9609,19 +9609,19 @@
         <v>204364</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>180973</v>
+        <v>182046</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>228041</v>
+        <v>230535</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3171944651596565</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2808884961949438</v>
+        <v>0.2825535374818702</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3539433212504283</v>
+        <v>0.3578145559154388</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>387</v>
@@ -9630,19 +9630,19 @@
         <v>417897</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>385538</v>
+        <v>384351</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>455631</v>
+        <v>458717</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3248537639153937</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2996989107505547</v>
+        <v>0.2987761056310076</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3541859963516696</v>
+        <v>0.3565852870391323</v>
       </c>
     </row>
     <row r="26">
@@ -9659,19 +9659,19 @@
         <v>12163</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6206</v>
+        <v>6569</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23084</v>
+        <v>22912</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01894148412793908</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009663946288303089</v>
+        <v>0.01023079392866689</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03594879090653331</v>
+        <v>0.03568141447922174</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -9680,19 +9680,19 @@
         <v>22754</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14405</v>
+        <v>14481</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34083</v>
+        <v>33695</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03531727535953289</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02235789744129746</v>
+        <v>0.02247591906015547</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05290073985170796</v>
+        <v>0.05229885046474857</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -9701,19 +9701,19 @@
         <v>34917</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23224</v>
+        <v>23113</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>49110</v>
+        <v>48139</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02714310966100773</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01805350633764784</v>
+        <v>0.01796696445094546</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03817569558021994</v>
+        <v>0.03742107387819101</v>
       </c>
     </row>
     <row r="27">
@@ -9818,19 +9818,19 @@
         <v>7576</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3228</v>
+        <v>3286</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16092</v>
+        <v>16440</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0152843457394748</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006511371530523721</v>
+        <v>0.006630150931988256</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03246302543962989</v>
+        <v>0.0331649352157723</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -9839,19 +9839,19 @@
         <v>7576</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15786</v>
+        <v>16369</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007799629706534547</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003031058288273417</v>
+        <v>0.003033262760522471</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0162513846583957</v>
+        <v>0.01685201475048185</v>
       </c>
     </row>
     <row r="29">
@@ -9868,19 +9868,19 @@
         <v>36669</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25431</v>
+        <v>24977</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51954</v>
+        <v>51260</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07708793026777432</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05346278250134912</v>
+        <v>0.05250745002401718</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1092217207754624</v>
+        <v>0.1077616025434385</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -9889,19 +9889,19 @@
         <v>32933</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22241</v>
+        <v>23489</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>46560</v>
+        <v>47610</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06643801396167627</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04486949329087984</v>
+        <v>0.04738617247507503</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09392897554073042</v>
+        <v>0.09604801437300975</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>57</v>
@@ -9910,19 +9910,19 @@
         <v>69602</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>52188</v>
+        <v>52839</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>88771</v>
+        <v>88600</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07165325841403468</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05372648888732334</v>
+        <v>0.05439632991864009</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09138761613342863</v>
+        <v>0.09121176612348099</v>
       </c>
     </row>
     <row r="30">
@@ -9939,19 +9939,19 @@
         <v>284108</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>262872</v>
+        <v>262162</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>305537</v>
+        <v>306807</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5972724070731525</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5526277526162583</v>
+        <v>0.5511350517990118</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6423225648596687</v>
+        <v>0.6449915317711402</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>248</v>
@@ -9960,19 +9960,19 @@
         <v>284160</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>261628</v>
+        <v>262333</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>308955</v>
+        <v>307082</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.573261108675796</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5278059638996101</v>
+        <v>0.5292271881569542</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6232819911647007</v>
+        <v>0.6195050623657362</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>503</v>
@@ -9981,19 +9981,19 @@
         <v>568269</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>528571</v>
+        <v>537827</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>598716</v>
+        <v>603679</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5850193973948382</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.544151372886568</v>
+        <v>0.5536800480836992</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6163647617853691</v>
+        <v>0.6214732398847197</v>
       </c>
     </row>
     <row r="31">
@@ -10010,19 +10010,19 @@
         <v>143880</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>123825</v>
+        <v>122747</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>163437</v>
+        <v>164090</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3024753412886078</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2603146098542008</v>
+        <v>0.2580466157341168</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3435883245317241</v>
+        <v>0.3449617290614508</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>143</v>
@@ -10031,19 +10031,19 @@
         <v>161095</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>139251</v>
+        <v>139679</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>182925</v>
+        <v>182639</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3249923251573452</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2809228578639811</v>
+        <v>0.2817876259718397</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.369032023470437</v>
+        <v>0.3684548988725215</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>270</v>
@@ -10052,19 +10052,19 @@
         <v>304976</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>275172</v>
+        <v>273895</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>338633</v>
+        <v>336768</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3139657995180746</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2832827480886845</v>
+        <v>0.2819690210872788</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3486147312743098</v>
+        <v>0.3466952968854384</v>
       </c>
     </row>
     <row r="32">
@@ -10081,19 +10081,19 @@
         <v>11019</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5501</v>
+        <v>5536</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>20189</v>
+        <v>19474</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02316432137046527</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01156373518924799</v>
+        <v>0.01163775778320483</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04244305066268091</v>
+        <v>0.04093904693135784</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -10102,19 +10102,19 @@
         <v>9926</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4514</v>
+        <v>4633</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18929</v>
+        <v>19861</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02002420646570771</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009106482229448725</v>
+        <v>0.009346567063206452</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03818713123796651</v>
+        <v>0.0400671215227851</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -10123,19 +10123,19 @@
         <v>20945</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>12012</v>
+        <v>13319</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>31320</v>
+        <v>32868</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02156191496651798</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.012366005507517</v>
+        <v>0.0137120209507828</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03224275339667022</v>
+        <v>0.03383653432517363</v>
       </c>
     </row>
     <row r="33">
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6202</v>
+        <v>5229</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002749465091814088</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0165016093591642</v>
+        <v>0.01391172905464946</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6173</v>
+        <v>5168</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001459215158023923</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.008716406770256197</v>
+        <v>0.007297040410697129</v>
       </c>
     </row>
     <row r="35">
@@ -10290,19 +10290,19 @@
         <v>18055</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10972</v>
+        <v>10871</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>30367</v>
+        <v>28773</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05432912474947995</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03301513269284159</v>
+        <v>0.0327119808500818</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09137750438740938</v>
+        <v>0.08658211224038784</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>25</v>
@@ -10311,19 +10311,19 @@
         <v>26455</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>18592</v>
+        <v>17736</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>38277</v>
+        <v>38152</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07038689071119471</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04946678269266075</v>
+        <v>0.0471890310747169</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1018414592605115</v>
+        <v>0.1015086939096076</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>42</v>
@@ -10332,19 +10332,19 @@
         <v>44509</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>32478</v>
+        <v>32519</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>59280</v>
+        <v>59779</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06285141352670337</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04586171089815175</v>
+        <v>0.0459200115026376</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08370903354683379</v>
+        <v>0.08441311216436252</v>
       </c>
     </row>
     <row r="36">
@@ -10361,19 +10361,19 @@
         <v>176164</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>158047</v>
+        <v>157698</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>193919</v>
+        <v>195285</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.53009487056752</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4755793908932843</v>
+        <v>0.4745305042809718</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5835210435872998</v>
+        <v>0.5876337786115873</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>191</v>
@@ -10382,19 +10382,19 @@
         <v>202929</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>184618</v>
+        <v>183801</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>223462</v>
+        <v>223099</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5399279565167056</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.491209068871833</v>
+        <v>0.4890340847373126</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5945579751145494</v>
+        <v>0.5935941124581993</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>361</v>
@@ -10403,19 +10403,19 @@
         <v>379093</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>351498</v>
+        <v>349827</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>405628</v>
+        <v>406866</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5353135540525089</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4963471197145993</v>
+        <v>0.4939874484342368</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5727829525872326</v>
+        <v>0.5745315255037576</v>
       </c>
     </row>
     <row r="37">
@@ -10432,19 +10432,19 @@
         <v>130122</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>112684</v>
+        <v>112525</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>148602</v>
+        <v>148510</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.391550678457377</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.33907811157051</v>
+        <v>0.3385992281343524</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4471595171603985</v>
+        <v>0.4468826949947344</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>125</v>
@@ -10453,19 +10453,19 @@
         <v>134989</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>115137</v>
+        <v>117181</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>153891</v>
+        <v>154719</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3591607841066144</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3063419871818598</v>
+        <v>0.3117796270879589</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4094522038749205</v>
+        <v>0.4116564947887274</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>253</v>
@@ -10474,19 +10474,19 @@
         <v>265111</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>239767</v>
+        <v>238801</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>294470</v>
+        <v>292765</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.374360489375092</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3385730090751676</v>
+        <v>0.3372079996367991</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4158186002729574</v>
+        <v>0.4134108612111131</v>
       </c>
     </row>
     <row r="38">
@@ -10503,19 +10503,19 @@
         <v>7984</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3947</v>
+        <v>3909</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>15243</v>
+        <v>15147</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02402532622562308</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01187641963124949</v>
+        <v>0.01176405233365486</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0458669287066</v>
+        <v>0.04557808493799909</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>10</v>
@@ -10524,19 +10524,19 @@
         <v>10439</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5239</v>
+        <v>5175</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>18612</v>
+        <v>18030</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02777490357367125</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01393938412859085</v>
+        <v>0.01376813656680383</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0495207974666033</v>
+        <v>0.04797135778895528</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>18</v>
@@ -10545,19 +10545,19 @@
         <v>18423</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>11389</v>
+        <v>11293</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>29027</v>
+        <v>28926</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02601532788767182</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01608250714692987</v>
+        <v>0.01594608343397183</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04098894283440287</v>
+        <v>0.04084655067969021</v>
       </c>
     </row>
     <row r="39">
@@ -10649,19 +10649,19 @@
         <v>2702</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6696</v>
+        <v>8078</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01051334440673412</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003426882103869065</v>
+        <v>0.003426005150054319</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02605549233489351</v>
+        <v>0.03143338207582025</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -10670,19 +10670,19 @@
         <v>7493</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2612</v>
+        <v>2651</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14948</v>
+        <v>15177</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01878757391067306</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.006549279062545492</v>
+        <v>0.006647897933414256</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03747921275233976</v>
+        <v>0.03805361956268755</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -10691,19 +10691,19 @@
         <v>10195</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5177</v>
+        <v>4999</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>20961</v>
+        <v>18458</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0155451536258186</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00789393520856497</v>
+        <v>0.00762286670067202</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03196161353336567</v>
+        <v>0.0281445001991141</v>
       </c>
     </row>
     <row r="41">
@@ -10720,19 +10720,19 @@
         <v>17835</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11372</v>
+        <v>11323</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>27476</v>
+        <v>26819</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06939625960122563</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04424840304318557</v>
+        <v>0.04405764901279467</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1069101979490641</v>
+        <v>0.1043549424856088</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>20</v>
@@ -10741,19 +10741,19 @@
         <v>29102</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>18657</v>
+        <v>18760</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>43773</v>
+        <v>44967</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07296849342142815</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04677941331261248</v>
+        <v>0.04703818269381654</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1097544027362796</v>
+        <v>0.1127478633625708</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>39</v>
@@ -10762,19 +10762,19 @@
         <v>46937</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>33642</v>
+        <v>34895</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>65113</v>
+        <v>65356</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0715686430310862</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05129654049173347</v>
+        <v>0.05320855229561854</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09928347542131623</v>
+        <v>0.09965423479378199</v>
       </c>
     </row>
     <row r="42">
@@ -10791,19 +10791,19 @@
         <v>124640</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>109282</v>
+        <v>110695</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>138500</v>
+        <v>139492</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4849842975758386</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4252241970956936</v>
+        <v>0.4307222183310657</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5389144953304551</v>
+        <v>0.5427731682360465</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>152</v>
@@ -10812,19 +10812,19 @@
         <v>199910</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>175048</v>
+        <v>175994</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>223784</v>
+        <v>222836</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5012460571667702</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4389079986439924</v>
+        <v>0.4412791113664855</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5611042323932168</v>
+        <v>0.5587289593261594</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>299</v>
@@ -10833,19 +10833,19 @@
         <v>324550</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>297957</v>
+        <v>297003</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>351384</v>
+        <v>352014</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4948735654272116</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.454324073152671</v>
+        <v>0.452869180642909</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5357885685330318</v>
+        <v>0.5367495510141317</v>
       </c>
     </row>
     <row r="43">
@@ -10862,19 +10862,19 @@
         <v>107553</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>93845</v>
+        <v>93160</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>123374</v>
+        <v>121701</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4184968963881697</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3651579089316314</v>
+        <v>0.3624924005989971</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4800587551255868</v>
+        <v>0.473548545493463</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>120</v>
@@ -10883,19 +10883,19 @@
         <v>159684</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>137678</v>
+        <v>137067</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>184460</v>
+        <v>183125</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4003843206981809</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3452069049485776</v>
+        <v>0.343675474339031</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4625058970196106</v>
+        <v>0.4591579823425131</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>248</v>
@@ -10904,19 +10904,19 @@
         <v>267237</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>236496</v>
+        <v>242093</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>293089</v>
+        <v>294819</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4074820912882067</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3606086906846103</v>
+        <v>0.3691420056938534</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.446901005075045</v>
+        <v>0.4495394189931523</v>
       </c>
     </row>
     <row r="44">
@@ -10933,19 +10933,19 @@
         <v>4269</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1660</v>
+        <v>877</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>9529</v>
+        <v>8715</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01660920202803199</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.006459271826461722</v>
+        <v>0.003414182923786201</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03707964363375545</v>
+        <v>0.03390940633442895</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>8138</v>
+        <v>7988</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.006613554802947693</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02040441558230468</v>
+        <v>0.0200284637804359</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7</v>
@@ -10975,19 +10975,19 @@
         <v>6906</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2563</v>
+        <v>2518</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>13591</v>
+        <v>13336</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01053054662767696</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003908069010236396</v>
+        <v>0.003839903625884452</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0207235840502144</v>
+        <v>0.02033427567326011</v>
       </c>
     </row>
     <row r="45">
@@ -11079,19 +11079,19 @@
         <v>33860</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>22788</v>
+        <v>23050</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>45799</v>
+        <v>46832</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01002294725909459</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006745722274736837</v>
+        <v>0.006823093286469246</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01355728059317929</v>
+        <v>0.01386309410696685</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>52</v>
@@ -11100,19 +11100,19 @@
         <v>55929</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>41828</v>
+        <v>43223</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>71904</v>
+        <v>72859</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01583251552551437</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01184074722522613</v>
+        <v>0.01223582093270166</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02035494426230511</v>
+        <v>0.02062524834643535</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>84</v>
@@ -11121,19 +11121,19 @@
         <v>89788</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>70193</v>
+        <v>71632</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>111028</v>
+        <v>112096</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01299258981391257</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01015709972640251</v>
+        <v>0.01036534108166622</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01606603482916434</v>
+        <v>0.01622061423900854</v>
       </c>
     </row>
     <row r="47">
@@ -11150,19 +11150,19 @@
         <v>341781</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>306618</v>
+        <v>304303</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>378993</v>
+        <v>381645</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1011723154359604</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.09076337065814877</v>
+        <v>0.09007827315099787</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1121875036411684</v>
+        <v>0.1129725432202197</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>332</v>
@@ -11171,19 +11171,19 @@
         <v>349596</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>314265</v>
+        <v>311751</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>385383</v>
+        <v>388384</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.09896535905745177</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.08896355506572698</v>
+        <v>0.08825180015178452</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.10909595835269</v>
+        <v>0.1099455999641452</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>647</v>
@@ -11192,19 +11192,19 @@
         <v>691377</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>645867</v>
+        <v>633784</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>752613</v>
+        <v>739136</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1000441986331803</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09345877525834977</v>
+        <v>0.09171027034580945</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1089050972702732</v>
+        <v>0.1069549388764774</v>
       </c>
     </row>
     <row r="48">
@@ -11221,19 +11221,19 @@
         <v>1863085</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1805401</v>
+        <v>1805438</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1922187</v>
+        <v>1919448</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.5515009486377626</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5344257132837664</v>
+        <v>0.5344364840802692</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.5689960968356524</v>
+        <v>0.5681852830279215</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1832</v>
@@ -11242,19 +11242,19 @@
         <v>1940557</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1882296</v>
+        <v>1882017</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>2005556</v>
+        <v>2001026</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5493419733737094</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5328491774101818</v>
+        <v>0.5327701931628327</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5677422093381793</v>
+        <v>0.5664596595500389</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3610</v>
@@ -11263,19 +11263,19 @@
         <v>3803642</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3724217</v>
+        <v>3717637</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>3893484</v>
+        <v>3891816</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5503973580566878</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5389043917872753</v>
+        <v>0.5379522028296537</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.5633977834727267</v>
+        <v>0.5631564174147511</v>
       </c>
     </row>
     <row r="49">
@@ -11292,19 +11292,19 @@
         <v>1063912</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1007377</v>
+        <v>1010488</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1118152</v>
+        <v>1120179</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.314933827613973</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2981987602177656</v>
+        <v>0.2991195184705423</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3309895764457623</v>
+        <v>0.3315898232776875</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1035</v>
@@ -11313,19 +11313,19 @@
         <v>1102710</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1044139</v>
+        <v>1051549</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1158497</v>
+        <v>1159297</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3121602817049986</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2955797183011178</v>
+        <v>0.2976773863243635</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3279528615953378</v>
+        <v>0.3281791434216694</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2056</v>
@@ -11334,19 +11334,19 @@
         <v>2166622</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2082757</v>
+        <v>2089208</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2243398</v>
+        <v>2242006</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3135160906012866</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3013806364716675</v>
+        <v>0.3023141048552891</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3246257547169871</v>
+        <v>0.3244243794738133</v>
       </c>
     </row>
     <row r="50">
@@ -11363,19 +11363,19 @@
         <v>75570</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>59086</v>
+        <v>59955</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>96705</v>
+        <v>96568</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02236996105320944</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01749025127929186</v>
+        <v>0.01774759938861817</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02862598438696792</v>
+        <v>0.02858562398381091</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>76</v>
@@ -11384,19 +11384,19 @@
         <v>83720</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>66124</v>
+        <v>67196</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>104846</v>
+        <v>103708</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02369987033832589</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0187186753700036</v>
+        <v>0.0190220991271188</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02968041727006081</v>
+        <v>0.02935811938227737</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>146</v>
@@ -11405,19 +11405,19 @@
         <v>159290</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>134002</v>
+        <v>135464</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>186133</v>
+        <v>186819</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02304976289493273</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01939046403853841</v>
+        <v>0.01960205950207161</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02693398779261049</v>
+        <v>0.0270331846983979</v>
       </c>
     </row>
     <row r="51">
